--- a/CronogramaPGR-I.xlsx
+++ b/CronogramaPGR-I.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="2320" windowWidth="21600" windowHeight="17160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Seleccione un periodo para resaltarlo a la derecha.  A continuación hay una leyenda que describe el gráfico.</t>
   </si>
@@ -151,18 +156,6 @@
     <t>Comprar Materiales para la implementacion del Dispositivo (Placas,arduinos,lisencias)</t>
   </si>
   <si>
-    <t>Montar Circuito</t>
-  </si>
-  <si>
-    <t>Configuracion Internet</t>
-  </si>
-  <si>
-    <t>Configuracion Dispositivo Autonomo</t>
-  </si>
-  <si>
-    <t>Pruebas Dispositivo</t>
-  </si>
-  <si>
     <t>Consideraciones para implementar 1er dispositivo IoT a implementar que cuente con sensores y actuadores. Definir requerimientos o necesidades.</t>
   </si>
   <si>
@@ -175,18 +168,6 @@
     <t xml:space="preserve">Consideraciones para implementar 3er Dispositivo IOT  </t>
   </si>
   <si>
-    <t>Montaje de Circuito</t>
-  </si>
-  <si>
-    <t>Configutacion Dispositivo autonomo</t>
-  </si>
-  <si>
-    <t>Implementacion de Software IOT</t>
-  </si>
-  <si>
-    <t>Implementacion de Software IoT</t>
-  </si>
-  <si>
     <t>Consideraciones para Implementar 4to Dispositvo IOT</t>
   </si>
   <si>
@@ -200,6 +181,27 @@
   </si>
   <si>
     <t>Implementacion de Dispositivos IoT</t>
+  </si>
+  <si>
+    <t>Configuracion de dispositivo IoT</t>
+  </si>
+  <si>
+    <t>Configuración de la nube IoT</t>
+  </si>
+  <si>
+    <t>Configuración de dispositivo IoT</t>
+  </si>
+  <si>
+    <t>Implementacion de Software Cliente IoT</t>
+  </si>
+  <si>
+    <t>Implementacion de Software Cliente IOT</t>
+  </si>
+  <si>
+    <t>Pruebas de funcionalidad del Dispositivo IoT</t>
+  </si>
+  <si>
+    <t>Implementación fisica dispositivo IoT</t>
   </si>
 </sst>
 </file>
@@ -632,14 +634,11 @@
     <cellStyle name="% Completado" xfId="16"/>
     <cellStyle name="Actividad" xfId="2"/>
     <cellStyle name="Control del periodo resaltado" xfId="7"/>
-    <cellStyle name="Encabez. 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabez. 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Encabezado 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3"/>
     <cellStyle name="Encabezados del proyecto" xfId="4"/>
     <cellStyle name="Etiqueta" xfId="5"/>
-    <cellStyle name="Explicación" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Leyenda de la duración real" xfId="15"/>
@@ -648,7 +647,10 @@
     <cellStyle name="Leyenda del plan" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Porcentaje completado" xfId="6"/>
+    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
   <dxfs count="10">
@@ -1034,28 +1036,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="16.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1063,7 +1065,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1127,7 @@
       <c r="AS2" s="23"/>
       <c r="AT2" s="23"/>
     </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1">
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1169,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1355,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1395,9 +1397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
@@ -1407,9 +1409,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1447,9 +1449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1467,9 +1469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -1487,9 +1489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1507,9 +1509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -1527,9 +1529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -1547,9 +1549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1587,9 +1589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1607,9 +1609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1627,9 +1629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -1647,9 +1649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -1667,9 +1669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -1687,9 +1689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>11</v>
@@ -1707,9 +1709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -1727,9 +1729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -1747,9 +1749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -1767,9 +1769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -1787,9 +1789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>14</v>
@@ -1807,9 +1809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
@@ -1827,9 +1829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -1847,9 +1849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -1867,9 +1869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>16</v>
@@ -1887,9 +1889,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7">
         <v>16</v>
